--- a/data/vgp_database/Snake_River_Plain.xlsx
+++ b/data/vgp_database/Snake_River_Plain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A707A6C-2A67-CF42-8519-4502860D36DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB1C272-C29A-7241-AA13-E1BEC5AC2917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7580" yWindow="580" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="116">
   <si>
     <t>Name:</t>
   </si>
@@ -378,81 +378,6 @@
   </si>
   <si>
     <t>10.1029/2003GC000661</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000662</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000663</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000664</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000665</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000666</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000667</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000668</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000669</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000670</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000671</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000672</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000673</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000674</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000675</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000676</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000677</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000678</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000679</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000680</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000681</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000682</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000683</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000684</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000685</t>
-  </si>
-  <si>
-    <t>10.1029/2003GC000686</t>
   </si>
   <si>
     <t>Basalt</t>
@@ -858,7 +783,7 @@
   <dimension ref="A1:AQ734"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA9" sqref="AA9:AA34"/>
+      <selection activeCell="AP10" sqref="AP10:AP34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -896,7 +821,9 @@
     <col min="32" max="32" width="9.33203125" customWidth="1"/>
     <col min="33" max="33" width="10.5" customWidth="1"/>
     <col min="34" max="34" width="9.83203125" customWidth="1"/>
-    <col min="35" max="43" width="10.5" customWidth="1"/>
+    <col min="35" max="37" width="10.5" customWidth="1"/>
+    <col min="38" max="38" width="13.33203125" customWidth="1"/>
+    <col min="39" max="43" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1553,10 +1480,10 @@
         <v>112</v>
       </c>
       <c r="AA9" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB9" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC9" s="8" t="s">
         <v>66</v>
@@ -1658,10 +1585,10 @@
         <v>112</v>
       </c>
       <c r="AA10" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB10" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC10" s="8" t="s">
         <v>66</v>
@@ -1694,8 +1621,9 @@
       </c>
       <c r="AN10" s="19"/>
       <c r="AO10" s="19"/>
-      <c r="AP10" s="25" t="s">
-        <v>114</v>
+      <c r="AP10" s="25" t="str">
+        <f>AP9</f>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ10" s="19"/>
     </row>
@@ -1763,10 +1691,10 @@
         <v>112</v>
       </c>
       <c r="AA11" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB11" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC11" s="8" t="s">
         <v>66</v>
@@ -1799,8 +1727,9 @@
       </c>
       <c r="AN11" s="19"/>
       <c r="AO11" s="19"/>
-      <c r="AP11" s="25" t="s">
-        <v>115</v>
+      <c r="AP11" s="25" t="str">
+        <f t="shared" ref="AP11:AP34" si="0">AP10</f>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ11" s="19"/>
     </row>
@@ -1868,10 +1797,10 @@
         <v>112</v>
       </c>
       <c r="AA12" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB12" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC12" s="8" t="s">
         <v>66</v>
@@ -1904,8 +1833,9 @@
       </c>
       <c r="AN12" s="19"/>
       <c r="AO12" s="19"/>
-      <c r="AP12" s="25" t="s">
-        <v>116</v>
+      <c r="AP12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ12" s="19"/>
     </row>
@@ -1973,10 +1903,10 @@
         <v>112</v>
       </c>
       <c r="AA13" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB13" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC13" s="8" t="s">
         <v>66</v>
@@ -2009,8 +1939,9 @@
       </c>
       <c r="AN13" s="19"/>
       <c r="AO13" s="19"/>
-      <c r="AP13" s="25" t="s">
-        <v>117</v>
+      <c r="AP13" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ13" s="19"/>
     </row>
@@ -2078,10 +2009,10 @@
         <v>112</v>
       </c>
       <c r="AA14" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB14" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC14" s="8" t="s">
         <v>66</v>
@@ -2114,8 +2045,9 @@
       </c>
       <c r="AN14" s="19"/>
       <c r="AO14" s="19"/>
-      <c r="AP14" s="25" t="s">
-        <v>118</v>
+      <c r="AP14" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ14" s="19"/>
     </row>
@@ -2183,10 +2115,10 @@
         <v>112</v>
       </c>
       <c r="AA15" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB15" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC15" s="8" t="s">
         <v>66</v>
@@ -2219,8 +2151,9 @@
       </c>
       <c r="AN15" s="19"/>
       <c r="AO15" s="19"/>
-      <c r="AP15" s="25" t="s">
-        <v>119</v>
+      <c r="AP15" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ15" s="19"/>
     </row>
@@ -2288,10 +2221,10 @@
         <v>112</v>
       </c>
       <c r="AA16" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB16" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC16" s="8" t="s">
         <v>66</v>
@@ -2324,8 +2257,9 @@
       </c>
       <c r="AN16" s="19"/>
       <c r="AO16" s="19"/>
-      <c r="AP16" s="25" t="s">
-        <v>120</v>
+      <c r="AP16" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ16" s="19"/>
     </row>
@@ -2393,10 +2327,10 @@
         <v>112</v>
       </c>
       <c r="AA17" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB17" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC17" s="8" t="s">
         <v>66</v>
@@ -2431,8 +2365,9 @@
         <v>80</v>
       </c>
       <c r="AO17" s="19"/>
-      <c r="AP17" s="25" t="s">
-        <v>121</v>
+      <c r="AP17" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ17" s="19"/>
     </row>
@@ -2500,10 +2435,10 @@
         <v>112</v>
       </c>
       <c r="AA18" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB18" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC18" s="8" t="s">
         <v>66</v>
@@ -2536,8 +2471,9 @@
       </c>
       <c r="AN18" s="19"/>
       <c r="AO18" s="19"/>
-      <c r="AP18" s="25" t="s">
-        <v>122</v>
+      <c r="AP18" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ18" s="19"/>
     </row>
@@ -2605,10 +2541,10 @@
         <v>112</v>
       </c>
       <c r="AA19" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB19" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC19" s="8" t="s">
         <v>66</v>
@@ -2641,8 +2577,9 @@
       </c>
       <c r="AN19" s="19"/>
       <c r="AO19" s="19"/>
-      <c r="AP19" s="25" t="s">
-        <v>123</v>
+      <c r="AP19" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ19" s="19"/>
     </row>
@@ -2710,10 +2647,10 @@
         <v>112</v>
       </c>
       <c r="AA20" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB20" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC20" s="8" t="s">
         <v>66</v>
@@ -2746,8 +2683,9 @@
       </c>
       <c r="AN20" s="19"/>
       <c r="AO20" s="19"/>
-      <c r="AP20" s="25" t="s">
-        <v>124</v>
+      <c r="AP20" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ20" s="19"/>
     </row>
@@ -2815,10 +2753,10 @@
         <v>112</v>
       </c>
       <c r="AA21" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB21" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC21" s="8" t="s">
         <v>66</v>
@@ -2851,8 +2789,9 @@
       </c>
       <c r="AN21" s="19"/>
       <c r="AO21" s="19"/>
-      <c r="AP21" s="25" t="s">
-        <v>125</v>
+      <c r="AP21" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ21" s="19"/>
     </row>
@@ -2920,10 +2859,10 @@
         <v>112</v>
       </c>
       <c r="AA22" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB22" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC22" s="8" t="s">
         <v>66</v>
@@ -2956,8 +2895,9 @@
       </c>
       <c r="AN22" s="19"/>
       <c r="AO22" s="19"/>
-      <c r="AP22" s="25" t="s">
-        <v>126</v>
+      <c r="AP22" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ22" s="19"/>
     </row>
@@ -3025,10 +2965,10 @@
         <v>112</v>
       </c>
       <c r="AA23" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB23" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC23" s="8" t="s">
         <v>66</v>
@@ -3061,8 +3001,9 @@
       </c>
       <c r="AN23" s="19"/>
       <c r="AO23" s="19"/>
-      <c r="AP23" s="25" t="s">
-        <v>127</v>
+      <c r="AP23" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ23" s="19"/>
     </row>
@@ -3130,10 +3071,10 @@
         <v>112</v>
       </c>
       <c r="AA24" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB24" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC24" s="8" t="s">
         <v>66</v>
@@ -3170,8 +3111,9 @@
       <c r="AO24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AP24" s="25" t="s">
-        <v>128</v>
+      <c r="AP24" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ24" s="19"/>
     </row>
@@ -3239,10 +3181,10 @@
         <v>112</v>
       </c>
       <c r="AA25" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB25" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC25" s="8" t="s">
         <v>66</v>
@@ -3275,8 +3217,9 @@
       </c>
       <c r="AN25" s="19"/>
       <c r="AO25" s="19"/>
-      <c r="AP25" s="25" t="s">
-        <v>129</v>
+      <c r="AP25" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ25" s="19"/>
     </row>
@@ -3344,10 +3287,10 @@
         <v>112</v>
       </c>
       <c r="AA26" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB26" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC26" s="8" t="s">
         <v>66</v>
@@ -3380,8 +3323,9 @@
       </c>
       <c r="AN26" s="19"/>
       <c r="AO26" s="19"/>
-      <c r="AP26" s="25" t="s">
-        <v>130</v>
+      <c r="AP26" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ26" s="19"/>
     </row>
@@ -3449,10 +3393,10 @@
         <v>112</v>
       </c>
       <c r="AA27" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB27" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC27" s="8" t="s">
         <v>66</v>
@@ -3485,8 +3429,9 @@
       </c>
       <c r="AN27" s="19"/>
       <c r="AO27" s="19"/>
-      <c r="AP27" s="25" t="s">
-        <v>131</v>
+      <c r="AP27" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ27" s="19"/>
     </row>
@@ -3554,10 +3499,10 @@
         <v>112</v>
       </c>
       <c r="AA28" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB28" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC28" s="8" t="s">
         <v>66</v>
@@ -3590,8 +3535,9 @@
       </c>
       <c r="AN28" s="19"/>
       <c r="AO28" s="19"/>
-      <c r="AP28" s="25" t="s">
-        <v>132</v>
+      <c r="AP28" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ28" s="19"/>
     </row>
@@ -3659,10 +3605,10 @@
         <v>112</v>
       </c>
       <c r="AA29" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB29" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC29" s="8" t="s">
         <v>66</v>
@@ -3695,8 +3641,9 @@
       </c>
       <c r="AN29" s="19"/>
       <c r="AO29" s="19"/>
-      <c r="AP29" s="25" t="s">
-        <v>133</v>
+      <c r="AP29" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ29" s="19"/>
     </row>
@@ -3764,10 +3711,10 @@
         <v>112</v>
       </c>
       <c r="AA30" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB30" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC30" s="8" t="s">
         <v>66</v>
@@ -3802,8 +3749,9 @@
       <c r="AO30" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AP30" s="25" t="s">
-        <v>134</v>
+      <c r="AP30" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ30" s="19"/>
     </row>
@@ -3871,10 +3819,10 @@
         <v>112</v>
       </c>
       <c r="AA31" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB31" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC31" s="8" t="s">
         <v>66</v>
@@ -3909,8 +3857,9 @@
       <c r="AO31" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AP31" s="25" t="s">
-        <v>135</v>
+      <c r="AP31" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ31" s="19"/>
     </row>
@@ -3978,10 +3927,10 @@
         <v>112</v>
       </c>
       <c r="AA32" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB32" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC32" s="8" t="s">
         <v>66</v>
@@ -4016,8 +3965,9 @@
       <c r="AO32" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AP32" s="25" t="s">
-        <v>136</v>
+      <c r="AP32" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ32" s="19"/>
     </row>
@@ -4085,10 +4035,10 @@
         <v>112</v>
       </c>
       <c r="AA33" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB33" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC33" s="8" t="s">
         <v>66</v>
@@ -4121,8 +4071,9 @@
       </c>
       <c r="AN33" s="19"/>
       <c r="AO33" s="19"/>
-      <c r="AP33" s="25" t="s">
-        <v>137</v>
+      <c r="AP33" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ33" s="19"/>
     </row>
@@ -4190,10 +4141,10 @@
         <v>112</v>
       </c>
       <c r="AA34" s="24" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="AB34" s="24" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="AC34" s="8" t="s">
         <v>66</v>
@@ -4230,8 +4181,9 @@
       <c r="AO34" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="AP34" s="25" t="s">
-        <v>138</v>
+      <c r="AP34" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1029/2003GC000661</v>
       </c>
       <c r="AQ34" s="19"/>
     </row>
@@ -35724,7 +35676,6 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP9" r:id="rId1" display="https://doi.org/10.1029/2003GC000661" xr:uid="{52BA0D54-3B0F-A541-A9FF-E7C53BB3340C}"/>
-    <hyperlink ref="AP10:AP34" r:id="rId2" display="https://doi.org/10.1029/2003GC000661" xr:uid="{825B30D5-4F7B-7441-99BD-8E7F480FF5D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
